--- a/ProCarrier/ProCarrierService/OCT_RESULTS/INFORMATION.xlsx
+++ b/ProCarrier/ProCarrierService/OCT_RESULTS/INFORMATION.xlsx
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7170.898139999999</v>
+        <v>7587.16476</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5437.7757</v>
+        <v>5760.49656</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33822.78000000001</v>
+        <v>37879.17864000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34189.17200000001</v>
+        <v>38245.57064000001</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10146.1084</v>
+        <v>11355.33376</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17265.2084</v>
+        <v>18474.43376</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39626.9477</v>
+        <v>44006.0672</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
